--- a/medicine/Médecine vétérinaire/Gilbert_Mullie/Gilbert_Mullie.xlsx
+++ b/medicine/Médecine vétérinaire/Gilbert_Mullie/Gilbert_Mullie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gilbert Aristide Joseph Mullie, né le 26 mai 1876 à Dottignies et décédé le 24 août 1962 à Woluwe-Saint-Lambert fut un homme politique catholique belge.
 Mullie fut docteur vétérinaire (Université catholique de Louvain, 1900).
@@ -512,7 +524,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1901-1902: assistant à l'École royale de médecine vétérinaire de Cureghem;
 1904: inspecteur-vétérinaire au Ministère de l'Agriculture;
@@ -554,7 +568,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut décoré de la Croix de Fer (14-18), de la Grand-croix de l'ordre de la Couronne, Croix de Guerre 1940-45, Grand-croix de l'ordre de Léopold II, Commandeur avec plaque de l'ordre de Saint-Grégoire-le-Grand.
 </t>
@@ -585,7 +601,9 @@
           <t>Généalogie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il fut fils de Aimé Mullie, agriculteur et Cyrée Glorieux;
 Il épousa en 1928 Marie Braffort, 1 fils Serge Mullie époux Yolaine Empain.</t>
@@ -616,7 +634,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bio sur ODIS
  Portail de l’histoire militaire de la Belgique   Portail de la politique belge   Portail de la Seconde Guerre mondiale   Portail de la médecine vétérinaire                  </t>
